--- a/sample_excel/Ren'Py版演出表格.xlsx
+++ b/sample_excel/Ren'Py版演出表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\sample_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78FCE36-DC91-4AF8-B37D-9CE7CA25EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D157A4-868E-4B1D-BD63-5265078BF322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
   <si>
     <t>Index</t>
   </si>
@@ -445,6 +445,10 @@
   </si>
   <si>
     <t>隐藏文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +943,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
@@ -987,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
